--- a/Progresos/Bitacora+renovadaBaudelio-PARA SPREADS-ST.xlsx
+++ b/Progresos/Bitacora+renovadaBaudelio-PARA SPREADS-ST.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>SUBYACENTE</t>
   </si>
@@ -200,27 +200,6 @@
     <t>Capital</t>
   </si>
   <si>
-    <t>NO SÉ</t>
-  </si>
-  <si>
-    <t>1?</t>
-  </si>
-  <si>
-    <t>Abrí al pedo parece</t>
-  </si>
-  <si>
-    <t>Single ?</t>
-  </si>
-  <si>
-    <t>AAPL 200522C292.5</t>
-  </si>
-  <si>
-    <t>11,95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aun no entiendo los pasos. </t>
-  </si>
-  <si>
     <t>ZM</t>
   </si>
   <si>
@@ -237,6 +216,36 @@
   </si>
   <si>
     <t>Esto supuse a partir de la foto que saqué</t>
+  </si>
+  <si>
+    <t>EJEMPLO</t>
+  </si>
+  <si>
+    <t>ZM 200515P136</t>
+  </si>
+  <si>
+    <t>ZM 200515P130</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>QQQ 200626P255</t>
+  </si>
+  <si>
+    <t>QQQ 200626P252</t>
+  </si>
+  <si>
+    <t>NVDA 200626P345</t>
+  </si>
+  <si>
+    <t>NVDA 200626P340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver ese tema del precio de cierre de la prima. Puede ser que en los vídeos Mirza ya adelanta algo. </t>
   </si>
 </sst>
 </file>
@@ -344,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -404,17 +413,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -423,7 +421,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -515,18 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -546,6 +532,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -555,6 +559,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,47 +586,14 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -916,7 +905,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -924,33 +913,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18" style="36" customWidth="1"/>
+    <col min="3" max="3" width="18" style="32" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="13" style="37" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="11" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11" style="38" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="38" customWidth="1"/>
-    <col min="15" max="15" width="11" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13" style="33" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="11" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11" style="34" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="34" customWidth="1"/>
+    <col min="15" max="15" width="11" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="34" customWidth="1"/>
     <col min="18" max="21" width="11.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" style="39" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" style="35" customWidth="1"/>
     <col min="23" max="23" width="14.28515625" style="3" customWidth="1"/>
     <col min="24" max="24" width="15.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="38" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" style="38" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="34" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" style="34" customWidth="1"/>
     <col min="27" max="27" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="20.140625" style="3" customWidth="1"/>
     <col min="29" max="29" width="22.42578125" style="3" customWidth="1"/>
@@ -958,117 +947,117 @@
     <col min="31" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="42" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="44" t="s">
         <v>7</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="W1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Y1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="Z1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="42" t="s">
+      <c r="AA1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="42" t="s">
+      <c r="AB1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="42" t="s">
+      <c r="AC1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="42" t="s">
+      <c r="AD1" s="44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="43"/>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="52" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="43"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="45"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-    </row>
-    <row r="3" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="44"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+    </row>
+    <row r="3" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
         <v>20</v>
@@ -1106,22 +1095,22 @@
       <c r="S3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="44"/>
+      <c r="T3" s="46"/>
       <c r="U3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="V3" s="11"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="W3" s="52"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="12">
@@ -1139,7 +1128,9 @@
       <c r="F4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="H4" s="14" t="s">
         <v>30</v>
       </c>
@@ -1210,8 +1201,8 @@
       <c r="AC4" s="23"/>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="12">
@@ -1227,7 +1218,9 @@
       <c r="F5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="H5" s="14" t="s">
         <v>34</v>
       </c>
@@ -1295,9 +1288,12 @@
       <c r="AB5" s="13"/>
       <c r="AC5" s="23"/>
       <c r="AD5" s="24"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="12">
@@ -1313,7 +1309,9 @@
       <c r="F6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="H6" s="14" t="s">
         <v>37</v>
       </c>
@@ -1381,51 +1379,50 @@
       <c r="AB6" s="13"/>
       <c r="AC6" s="23"/>
       <c r="AD6" s="24"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B7" s="12">
-        <v>43956.594525462962</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="16">
-        <v>11.95</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>52</v>
+        <v>43957.125694444447</v>
+      </c>
+      <c r="C7" s="12">
+        <v>43966.666666666664</v>
+      </c>
+      <c r="D7" s="13">
+        <v>9</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="I7" s="15">
         <v>5</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15" t="s">
-        <v>53</v>
-      </c>
+      <c r="J7" s="13">
+        <v>136</v>
+      </c>
+      <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
-        <v>52</v>
+      <c r="N7" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="O7" s="15">
         <v>5</v>
       </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="13">
-        <v>11.85</v>
-      </c>
+      <c r="P7" s="13">
+        <v>130</v>
+      </c>
+      <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="26"/>
@@ -1438,98 +1435,117 @@
       <c r="AA7" s="22"/>
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
-      <c r="AD7" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="AD7" s="13"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="12">
+        <v>43986.088194444441</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43987.666666666664</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="41">
+        <v>311.42</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="15">
+        <v>5</v>
+      </c>
+      <c r="J8" s="13">
+        <v>303</v>
+      </c>
+      <c r="K8" s="40">
+        <v>0.1</v>
+      </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
+      <c r="N8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="15">
+        <v>5</v>
+      </c>
+      <c r="P8" s="13">
+        <v>302</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0.08</v>
+      </c>
       <c r="S8" s="13"/>
       <c r="T8" s="26"/>
       <c r="U8" s="26"/>
       <c r="V8" s="27"/>
       <c r="W8" s="26"/>
-      <c r="X8" s="35"/>
+      <c r="X8" s="20">
+        <v>319.27999999999997</v>
+      </c>
       <c r="Y8" s="28"/>
       <c r="Z8" s="29"/>
-      <c r="AA8" s="35"/>
+      <c r="AA8" s="31"/>
       <c r="AB8" s="30"/>
       <c r="AC8" s="30"/>
       <c r="AD8" s="30"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="55">
-        <v>43956</v>
-      </c>
-      <c r="C9" s="12">
-        <v>43987.666666666664</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B9" s="12">
+        <v>44006.043749999997</v>
+      </c>
+      <c r="C9" s="12"/>
       <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="59">
-        <v>311.42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" s="15">
         <v>5</v>
       </c>
       <c r="J9" s="13">
-        <v>305</v>
-      </c>
-      <c r="K9" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="L9" s="15"/>
+        <v>255</v>
+      </c>
+      <c r="K9" s="16">
+        <v>5.93</v>
+      </c>
       <c r="M9" s="15"/>
       <c r="N9" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O9" s="15">
         <v>5</v>
       </c>
-      <c r="P9" s="15">
-        <v>304</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>0.08</v>
-      </c>
+      <c r="P9" s="13">
+        <v>252</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
       <c r="V9" s="27"/>
       <c r="W9" s="26"/>
-      <c r="X9" s="20">
-        <v>319.27999999999997</v>
-      </c>
+      <c r="X9" s="20"/>
       <c r="Y9" s="28"/>
       <c r="Z9" s="29"/>
       <c r="AA9" s="13"/>
@@ -1537,24 +1553,48 @@
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="12">
+        <v>44006.061111111114</v>
+      </c>
       <c r="C10" s="25"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13">
+        <v>3</v>
+      </c>
       <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
+      <c r="H10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="15">
+        <v>5</v>
+      </c>
+      <c r="J10" s="13">
+        <v>345</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.04</v>
+      </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="13"/>
+      <c r="N10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="15">
+        <v>5</v>
+      </c>
+      <c r="P10" s="13">
+        <v>340</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0.11</v>
+      </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="26"/>
@@ -1569,7 +1609,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="25"/>
@@ -1601,52 +1641,67 @@
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="56"/>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="61"/>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="AB1:AB3"/>
     <mergeCell ref="AC1:AC3"/>
@@ -1659,12 +1714,6 @@
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1690,10 +1739,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="56"/>
       <c r="C3" t="s">
         <v>47</v>
       </c>
@@ -1705,7 +1754,7 @@
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="37">
         <v>2000000</v>
       </c>
     </row>
@@ -1716,7 +1765,7 @@
       <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="37">
         <v>1000000</v>
       </c>
     </row>
@@ -1727,7 +1776,7 @@
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="37">
         <v>1000000</v>
       </c>
     </row>

--- a/Progresos/Bitacora+renovadaBaudelio-PARA SPREADS-ST.xlsx
+++ b/Progresos/Bitacora+renovadaBaudelio-PARA SPREADS-ST.xlsx
@@ -31,7 +31,7 @@
     <author>tc={762C4D6C-3DA0-45C6-B502-0DD70E4E1D93}</author>
   </authors>
   <commentList>
-    <comment ref="AC4" authorId="0">
+    <comment ref="AC6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>SUBYACENTE</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Fecha de salida</t>
-  </si>
-  <si>
-    <t>Días de vuelo</t>
   </si>
   <si>
     <t>Precio del Subyacente</t>
@@ -246,19 +243,32 @@
   </si>
   <si>
     <t xml:space="preserve">Ver ese tema del precio de cierre de la prima. Puede ser que en los vídeos Mirza ya adelanta algo. </t>
+  </si>
+  <si>
+    <t>Horas de vuelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Hs. de Vuelo: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, mejor va a ser en días nomás porque </t>
+  </si>
+  <si>
+    <t>Muy rápido voy a alcanzar los 10.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[h]:\ mm;\ @"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +302,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,7 +438,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -550,6 +567,15 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,6 +585,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,32 +612,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -905,7 +931,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -913,18 +939,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18" style="32" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="33" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" style="34" customWidth="1"/>
@@ -947,693 +973,619 @@
     <col min="31" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C1" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="61">
+        <f>SUM(D9:D12)</f>
+        <v>9.0406134259246755</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E2" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D3" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="F3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="49" t="s">
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="44" t="s">
+      <c r="U3" s="1"/>
+      <c r="V3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="2" t="s">
+      <c r="W3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="50" t="s">
+      <c r="X3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="Y3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="50" t="s">
+      <c r="Z3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="50" t="s">
+      <c r="AA3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="44" t="s">
+      <c r="AB3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AC3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AD3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="44" t="s">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="4" t="s">
+      <c r="H4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48" t="s">
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+    </row>
+    <row r="5" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-    </row>
-    <row r="3" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="10" t="s">
+      <c r="T5" s="49"/>
+      <c r="U5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="46"/>
-      <c r="U3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="12">
-        <v>43487.573009259257</v>
-      </c>
-      <c r="C4" s="12">
-        <v>43493.461539351854</v>
-      </c>
-      <c r="D4" s="13">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13">
-        <v>262.27</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="15">
-        <v>1</v>
-      </c>
-      <c r="J4" s="13">
-        <v>267</v>
-      </c>
-      <c r="K4" s="16">
-        <v>1.26</v>
-      </c>
-      <c r="L4" s="16">
-        <v>0.77</v>
-      </c>
-      <c r="M4" s="16">
-        <f>K4-L4</f>
-        <v>0.49</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="15">
-        <v>1</v>
-      </c>
-      <c r="P4" s="13">
-        <v>275</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="R4" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="S4" s="16">
-        <f>Q4-R4</f>
-        <v>0.13</v>
-      </c>
-      <c r="T4" s="17">
-        <f>U4*100</f>
-        <v>111.00000000000001</v>
-      </c>
-      <c r="U4" s="17">
-        <f>K4-Q4</f>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="V4" s="18">
-        <f>((M4-S4)*O4*100)-12</f>
-        <v>24</v>
-      </c>
-      <c r="W4" s="19">
-        <f>((P4-J4)-U4)*100</f>
-        <v>689</v>
-      </c>
-      <c r="X4" s="20">
-        <v>287</v>
-      </c>
-      <c r="Y4" s="21">
-        <f>((U4/W4)*100)*100</f>
-        <v>16.110304789550074</v>
-      </c>
-      <c r="Z4" s="21">
-        <f>(V4/W4)*100</f>
-        <v>3.483309143686502</v>
-      </c>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="13"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="12">
-        <v>43490.474444444444</v>
-      </c>
-      <c r="C5" s="12">
-        <v>43494.63108796296</v>
-      </c>
-      <c r="D5" s="13">
-        <v>4</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="15">
-        <v>1</v>
-      </c>
-      <c r="J5" s="13">
-        <v>150</v>
-      </c>
-      <c r="K5" s="16">
-        <v>1.7</v>
-      </c>
-      <c r="L5" s="16">
-        <v>2.44</v>
-      </c>
-      <c r="M5" s="16">
-        <f t="shared" ref="M5:M6" si="0">K5-L5</f>
-        <v>-0.74</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="15">
-        <v>1</v>
-      </c>
-      <c r="P5" s="13">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="R5" s="16">
-        <v>0.83</v>
-      </c>
-      <c r="S5" s="16">
-        <f>Q5-R5</f>
-        <v>-0.26999999999999991</v>
-      </c>
-      <c r="T5" s="17">
-        <f t="shared" ref="T5" si="1">U5*100</f>
-        <v>113.99999999999999</v>
-      </c>
-      <c r="U5" s="17">
-        <f t="shared" ref="U5" si="2">K5-Q5</f>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="V5" s="18">
-        <f>((M5-S5)*O5*100)-12</f>
-        <v>-59.000000000000007</v>
-      </c>
-      <c r="W5" s="19">
-        <f t="shared" ref="W5" si="3">((J5-P5)-U5)*100</f>
-        <v>586</v>
-      </c>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="21">
-        <f>((U5/W5)*100)*100</f>
-        <v>19.453924914675767</v>
-      </c>
-      <c r="Z5" s="21">
-        <f>((V5/W5)*100)</f>
-        <v>-10.068259385665531</v>
-      </c>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B6" s="12">
-        <v>43495.427083333336</v>
+        <v>43487.573009259257</v>
       </c>
       <c r="C6" s="12">
-        <v>43495.618680555555</v>
+        <v>43493.461539351854</v>
       </c>
       <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="13">
+        <v>262.27</v>
+      </c>
       <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="I6" s="15">
         <v>1</v>
       </c>
       <c r="J6" s="13">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="K6" s="16">
-        <v>0.46</v>
+        <v>1.26</v>
       </c>
       <c r="L6" s="16">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="M6" s="16">
-        <f t="shared" si="0"/>
-        <v>-0.36999999999999994</v>
+        <f>K6-L6</f>
+        <v>0.49</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O6" s="15">
         <v>1</v>
       </c>
       <c r="P6" s="13">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="Q6" s="16">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="R6" s="16">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="16">
         <f>Q6-R6</f>
-        <v>-4.9999999999999989E-2</v>
+        <v>0.13</v>
       </c>
       <c r="T6" s="17">
         <f>U6*100</f>
-        <v>36</v>
+        <v>111.00000000000001</v>
       </c>
       <c r="U6" s="17">
         <f>K6-Q6</f>
-        <v>0.36</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="V6" s="18">
         <f>((M6-S6)*O6*100)-12</f>
-        <v>-44</v>
+        <v>24</v>
       </c>
       <c r="W6" s="19">
         <f>((P6-J6)-U6)*100</f>
-        <v>264</v>
-      </c>
-      <c r="X6" s="20"/>
+        <v>689</v>
+      </c>
+      <c r="X6" s="20">
+        <v>287</v>
+      </c>
       <c r="Y6" s="21">
         <f>((U6/W6)*100)*100</f>
-        <v>13.636363636363635</v>
+        <v>16.110304789550074</v>
       </c>
       <c r="Z6" s="21">
         <f>(V6/W6)*100</f>
-        <v>-16.666666666666664</v>
+        <v>3.483309143686502</v>
       </c>
       <c r="AA6" s="22"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="23"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="AD6" s="13"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>48</v>
+      <c r="A7" s="36" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="12">
-        <v>43957.125694444447</v>
+        <v>43490.474444444444</v>
       </c>
       <c r="C7" s="12">
-        <v>43966.666666666664</v>
+        <v>43494.63108796296</v>
       </c>
       <c r="D7" s="13">
-        <v>9</v>
-      </c>
-      <c r="E7" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
-        <v>55</v>
-      </c>
       <c r="I7" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7" s="13">
-        <v>136</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+        <v>150</v>
+      </c>
+      <c r="K7" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="L7" s="16">
+        <v>2.44</v>
+      </c>
+      <c r="M7" s="16">
+        <f t="shared" ref="M7:M8" si="0">K7-L7</f>
+        <v>-0.74</v>
+      </c>
       <c r="N7" s="14" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="O7" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P7" s="13">
-        <v>130</v>
-      </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="29"/>
+        <v>143</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="S7" s="16">
+        <f>Q7-R7</f>
+        <v>-0.26999999999999991</v>
+      </c>
+      <c r="T7" s="17">
+        <f t="shared" ref="T7" si="1">U7*100</f>
+        <v>113.99999999999999</v>
+      </c>
+      <c r="U7" s="17">
+        <f t="shared" ref="U7" si="2">K7-Q7</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="V7" s="18">
+        <f>((M7-S7)*O7*100)-12</f>
+        <v>-59.000000000000007</v>
+      </c>
+      <c r="W7" s="19">
+        <f t="shared" ref="W7" si="3">((J7-P7)-U7)*100</f>
+        <v>586</v>
+      </c>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="21">
+        <f>((U7/W7)*100)*100</f>
+        <v>19.453924914675767</v>
+      </c>
+      <c r="Z7" s="21">
+        <f>((V7/W7)*100)</f>
+        <v>-10.068259385665531</v>
+      </c>
       <c r="AA7" s="22"/>
       <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="12">
+        <v>43495.427083333336</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43495.618680555555</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12">
-        <v>43986.088194444441</v>
-      </c>
-      <c r="C8" s="12">
-        <v>43987.666666666664</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="G8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="41">
-        <v>311.42</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="15">
-        <v>5</v>
-      </c>
       <c r="J8" s="13">
-        <v>303</v>
-      </c>
-      <c r="K8" s="40">
+        <v>110</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0.46</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.36999999999999994</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="15">
+        <v>1</v>
+      </c>
+      <c r="P8" s="13">
+        <v>113</v>
+      </c>
+      <c r="Q8" s="16">
         <v>0.1</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="15">
-        <v>5</v>
-      </c>
-      <c r="P8" s="13">
-        <v>302</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="20">
-        <v>319.27999999999997</v>
-      </c>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="R8" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="S8" s="16">
+        <f>Q8-R8</f>
+        <v>-4.9999999999999989E-2</v>
+      </c>
+      <c r="T8" s="17">
+        <f>U8*100</f>
+        <v>36</v>
+      </c>
+      <c r="U8" s="17">
+        <f>K8-Q8</f>
+        <v>0.36</v>
+      </c>
+      <c r="V8" s="18">
+        <f>((M8-S8)*O8*100)-12</f>
+        <v>-44</v>
+      </c>
+      <c r="W8" s="19">
+        <f>((P8-J8)-U8)*100</f>
+        <v>264</v>
+      </c>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="21">
+        <f>((U8/W8)*100)*100</f>
+        <v>13.636363636363635</v>
+      </c>
+      <c r="Z8" s="21">
+        <f>(V8/W8)*100</f>
+        <v>-16.666666666666664</v>
+      </c>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="12">
-        <v>44006.043749999997</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="46">
+        <v>43957.62605324074</v>
+      </c>
+      <c r="C9" s="46">
+        <v>43966.666666666664</v>
+      </c>
+      <c r="D9" s="60">
+        <f>C9-B9</f>
+        <v>9.0406134259246755</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I9" s="15">
         <v>5</v>
       </c>
       <c r="J9" s="13">
-        <v>255</v>
-      </c>
-      <c r="K9" s="16">
-        <v>5.93</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O9" s="15">
         <v>5</v>
       </c>
       <c r="P9" s="13">
-        <v>252</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>9.1199999999999992</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
       <c r="V9" s="27"/>
       <c r="W9" s="26"/>
-      <c r="X9" s="20"/>
+      <c r="X9" s="22"/>
       <c r="Y9" s="28"/>
       <c r="Z9" s="29"/>
-      <c r="AA9" s="13"/>
+      <c r="AA9" s="22"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B10" s="12">
-        <v>44006.061111111114</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="13">
-        <v>3</v>
-      </c>
-      <c r="E10" s="16"/>
+        <v>43986.088194444441</v>
+      </c>
+      <c r="C10" s="12">
+        <v>43987.666666666664</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="41">
+        <v>311.42</v>
+      </c>
       <c r="F10" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="14" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I10" s="15">
         <v>5</v>
       </c>
       <c r="J10" s="13">
-        <v>345</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0.04</v>
+        <v>303</v>
+      </c>
+      <c r="K10" s="40">
+        <v>0.1</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="14" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="O10" s="15">
         <v>5</v>
       </c>
       <c r="P10" s="13">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="16">
-        <v>0.11</v>
-      </c>
-      <c r="R10" s="13"/>
+        <v>0.08</v>
+      </c>
       <c r="S10" s="13"/>
       <c r="T10" s="26"/>
       <c r="U10" s="26"/>
       <c r="V10" s="27"/>
       <c r="W10" s="26"/>
-      <c r="X10" s="13"/>
+      <c r="X10" s="20">
+        <v>319.27999999999997</v>
+      </c>
       <c r="Y10" s="28"/>
       <c r="Z10" s="29"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="12">
+        <v>44006.043749999997</v>
+      </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="13"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="H11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="15">
+        <v>5</v>
+      </c>
+      <c r="J11" s="13">
+        <v>255</v>
+      </c>
+      <c r="K11" s="16">
+        <v>5.93</v>
+      </c>
       <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="13"/>
+      <c r="N11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="15">
+        <v>5</v>
+      </c>
+      <c r="P11" s="13">
+        <v>252</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>9.1199999999999992</v>
+      </c>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
       <c r="V11" s="27"/>
       <c r="W11" s="26"/>
-      <c r="X11" s="13"/>
+      <c r="X11" s="20"/>
       <c r="Y11" s="28"/>
       <c r="Z11" s="29"/>
       <c r="AA11" s="13"/>
@@ -1642,81 +1594,168 @@
       <c r="AD11" s="13"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Q12" s="3"/>
+      <c r="A12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="12">
+        <v>44006.061111111114</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="15">
+        <v>5</v>
+      </c>
+      <c r="J12" s="13">
+        <v>345</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="15">
+        <v>5</v>
+      </c>
+      <c r="P12" s="13">
+        <v>340</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="Q13" s="3"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="38"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
+      <c r="A18" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q21" s="3"/>
     </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q23" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="H1:S1"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="H3:S3"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1735,24 +1774,24 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="37">
         <v>2000000</v>
@@ -1760,10 +1799,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="37">
         <v>1000000</v>
@@ -1771,10 +1810,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="37">
         <v>1000000</v>
